--- a/Aufgabenteilung.xlsx
+++ b/Aufgabenteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sp01\mldata\benutzer\sus\kappelmann.jan\Eigene Dateien\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4F5430-C5F4-4C9E-A9AA-1D4D5FF07CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BE4A2-603A-4D6B-802D-5494CB002345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9429EB27-9D91-4F9A-ACB3-BAB1254C6D60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Excel</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Python (MP3 Komprimierung)</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -144,6 +153,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3F0A6F-A584-413C-8E28-7DFAF5EF94D9}">
-  <dimension ref="B3:J6"/>
+  <dimension ref="B3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,9 +488,10 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,8 +519,11 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -515,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -535,8 +551,11 @@
       <c r="J4" s="3">
         <v>3</v>
       </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -564,8 +583,11 @@
       <c r="J5" s="4">
         <v>1</v>
       </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -573,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -591,6 +613,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Aufgabenteilung.xlsx
+++ b/Aufgabenteilung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sp01\mldata\benutzer\sus\kappelmann.jan\Eigene Dateien\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sp01\mldata\benutzer\sus\kappelmann.jan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BE4A2-603A-4D6B-802D-5494CB002345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2149F29-9D7E-46A3-AD32-B331E93A3F84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9429EB27-9D91-4F9A-ACB3-BAB1254C6D60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>Excel</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Python (MP3 Komprimierung)</t>
-  </si>
-  <si>
-    <t>Protokoll</t>
   </si>
 </sst>
 </file>
@@ -472,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3F0A6F-A584-413C-8E28-7DFAF5EF94D9}">
-  <dimension ref="B3:K6"/>
+  <dimension ref="B3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +485,9 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,11 +515,8 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -531,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -551,11 +544,8 @@
       <c r="J4" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -580,14 +570,11 @@
       <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
+      <c r="J5" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -612,11 +599,8 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
+      <c r="J6" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
